--- a/ET-master/Excel/mapinfo.xlsx
+++ b/ET-master/Excel/mapinfo.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OtherGitProjects\UFramework\Unity_ET_FrameWork\ET-Branch_V5.0\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyUnityFrameWork\MyUF\ET-master\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E24E78E-AB60-4AC6-97E3-07DF108243AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F6D869-AA46-41F7-9260-7F9F1626A108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="780" windowWidth="21600" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapinfo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1930,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2331,10 +2331,10 @@
         <v>77</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J6">
         <v>502</v>
@@ -2447,10 +2447,10 @@
         <v>81</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J7">
         <v>518</v>
@@ -2563,10 +2563,10 @@
         <v>84</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J8">
         <v>103</v>
@@ -2679,10 +2679,10 @@
         <v>87</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J9">
         <v>105</v>
@@ -2795,10 +2795,10 @@
         <v>91</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J10">
         <v>106</v>
@@ -2914,10 +2914,10 @@
         <v>96</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J11">
         <v>200</v>
@@ -3030,10 +3030,10 @@
         <v>99</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J12">
         <v>202</v>
@@ -3146,10 +3146,10 @@
         <v>102</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J13">
         <v>210</v>
@@ -3262,10 +3262,10 @@
         <v>106</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J14">
         <v>212</v>
@@ -3378,10 +3378,10 @@
         <v>109</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J15">
         <v>221</v>
@@ -3494,10 +3494,10 @@
         <v>112</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J16">
         <v>222</v>
@@ -3610,10 +3610,10 @@
         <v>115</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J17">
         <v>231</v>
@@ -3726,10 +3726,10 @@
         <v>118</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J18">
         <v>232</v>
@@ -3842,10 +3842,10 @@
         <v>121</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J19">
         <v>241</v>
@@ -3958,10 +3958,10 @@
         <v>124</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I20">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J20">
         <v>242</v>
@@ -4074,10 +4074,10 @@
         <v>127</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I21">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J21">
         <v>251</v>
@@ -4190,10 +4190,10 @@
         <v>130</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J22">
         <v>252</v>
@@ -4306,10 +4306,10 @@
         <v>133</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J23">
         <v>261</v>
@@ -4422,10 +4422,10 @@
         <v>136</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J24">
         <v>262</v>
@@ -4538,10 +4538,10 @@
         <v>139</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J25">
         <v>270</v>
@@ -4654,10 +4654,10 @@
         <v>142</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J26">
         <v>272</v>
@@ -4770,10 +4770,10 @@
         <v>145</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J27">
         <v>280</v>
@@ -4886,10 +4886,10 @@
         <v>148</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J28">
         <v>282</v>
@@ -5002,10 +5002,10 @@
         <v>151</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J29">
         <v>300</v>
@@ -5118,10 +5118,10 @@
         <v>154</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J30">
         <v>302</v>
@@ -5234,10 +5234,10 @@
         <v>157</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I31">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J31">
         <v>330</v>
@@ -5350,10 +5350,10 @@
         <v>160</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J32">
         <v>332</v>
@@ -5466,10 +5466,10 @@
         <v>163</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J33">
         <v>340</v>
@@ -5582,10 +5582,10 @@
         <v>166</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I34">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J34">
         <v>342</v>
@@ -5698,10 +5698,10 @@
         <v>169</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I35">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J35">
         <v>290</v>
@@ -5814,10 +5814,10 @@
         <v>172</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J36">
         <v>292</v>
@@ -5930,10 +5930,10 @@
         <v>175</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I37">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J37">
         <v>321</v>
@@ -6046,10 +6046,10 @@
         <v>178</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I38">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J38">
         <v>322</v>
@@ -6162,10 +6162,10 @@
         <v>181</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I39">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J39">
         <v>361</v>
@@ -6278,10 +6278,10 @@
         <v>184</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I40">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J40">
         <v>362</v>
@@ -6394,10 +6394,10 @@
         <v>187</v>
       </c>
       <c r="H41">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J41">
         <v>310</v>
@@ -6510,10 +6510,10 @@
         <v>190</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I42">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J42">
         <v>311</v>
@@ -6626,10 +6626,10 @@
         <v>193</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I43">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J43">
         <v>312</v>
@@ -6742,10 +6742,10 @@
         <v>196</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J44">
         <v>350</v>
@@ -6858,10 +6858,10 @@
         <v>199</v>
       </c>
       <c r="H45">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I45">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J45">
         <v>351</v>
@@ -6974,10 +6974,10 @@
         <v>202</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I46">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J46">
         <v>352</v>
@@ -7084,10 +7084,10 @@
         <v>204</v>
       </c>
       <c r="H47">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="3:41" x14ac:dyDescent="0.15">
@@ -7107,10 +7107,10 @@
         <v>207</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J48">
         <v>404</v>
@@ -7226,10 +7226,10 @@
         <v>211</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I49">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J49">
         <v>406</v>
@@ -7345,10 +7345,10 @@
         <v>214</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I50">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J50">
         <v>391</v>
@@ -7458,10 +7458,10 @@
         <v>216</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I51">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="3:41" x14ac:dyDescent="0.15">
@@ -7481,10 +7481,10 @@
         <v>218</v>
       </c>
       <c r="H52">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I52">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J52">
         <v>202</v>
@@ -7600,10 +7600,10 @@
         <v>221</v>
       </c>
       <c r="H53">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I53">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J53">
         <v>212</v>
@@ -7719,10 +7719,10 @@
         <v>87</v>
       </c>
       <c r="H54">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I54">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J54">
         <v>107</v>
@@ -7832,10 +7832,10 @@
         <v>226</v>
       </c>
       <c r="H55">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I55">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="3:41" x14ac:dyDescent="0.15">
@@ -7855,10 +7855,10 @@
         <v>229</v>
       </c>
       <c r="H56">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I56">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J56">
         <v>407</v>
@@ -7971,10 +7971,10 @@
         <v>232</v>
       </c>
       <c r="H57">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I57">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J57">
         <v>407</v>
@@ -8087,10 +8087,10 @@
         <v>232</v>
       </c>
       <c r="H58">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I58">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J58">
         <v>407</v>
@@ -8203,10 +8203,10 @@
         <v>232</v>
       </c>
       <c r="H59">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I59">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J59">
         <v>407</v>
@@ -8319,10 +8319,10 @@
         <v>232</v>
       </c>
       <c r="H60">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I60">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J60">
         <v>407</v>
@@ -8435,10 +8435,10 @@
         <v>232</v>
       </c>
       <c r="H61">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I61">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J61">
         <v>407</v>
@@ -8551,10 +8551,10 @@
         <v>239</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I62">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J62">
         <v>370</v>
@@ -8667,10 +8667,10 @@
         <v>241</v>
       </c>
       <c r="H63">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I63">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J63">
         <v>407</v>
@@ -8786,10 +8786,10 @@
         <v>244</v>
       </c>
       <c r="H64">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I64">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J64">
         <v>371</v>
@@ -8905,10 +8905,10 @@
         <v>247</v>
       </c>
       <c r="H65">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J65">
         <v>410</v>
@@ -9024,10 +9024,10 @@
         <v>250</v>
       </c>
       <c r="H66">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J66">
         <v>380</v>
@@ -9140,10 +9140,10 @@
         <v>252</v>
       </c>
       <c r="H67">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I67">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J67">
         <v>380</v>
@@ -9256,10 +9256,10 @@
         <v>254</v>
       </c>
       <c r="H68">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I68">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J68">
         <v>380</v>
@@ -9372,10 +9372,10 @@
         <v>257</v>
       </c>
       <c r="H69">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I69">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J69">
         <v>383</v>
@@ -9491,10 +9491,10 @@
         <v>260</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I70">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J70">
         <v>390</v>
@@ -9610,10 +9610,10 @@
         <v>263</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I71">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J71">
         <v>390</v>
@@ -9729,10 +9729,10 @@
         <v>265</v>
       </c>
       <c r="H72">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I72">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J72">
         <v>390</v>
@@ -9848,10 +9848,10 @@
         <v>267</v>
       </c>
       <c r="H73">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J73">
         <v>390</v>
@@ -9967,10 +9967,10 @@
         <v>269</v>
       </c>
       <c r="H74">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J74">
         <v>390</v>
@@ -10086,10 +10086,10 @@
         <v>271</v>
       </c>
       <c r="H75">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J75">
         <v>390</v>
@@ -10205,10 +10205,10 @@
         <v>273</v>
       </c>
       <c r="H76">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I76">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J76">
         <v>390</v>
@@ -10324,10 +10324,10 @@
         <v>275</v>
       </c>
       <c r="H77">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I77">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J77">
         <v>200</v>
@@ -10437,10 +10437,10 @@
         <v>276</v>
       </c>
       <c r="H78">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I78">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="3:41" x14ac:dyDescent="0.15">
@@ -10460,10 +10460,10 @@
         <v>232</v>
       </c>
       <c r="H79">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I79">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J79">
         <v>407</v>
@@ -10576,10 +10576,10 @@
         <v>279</v>
       </c>
       <c r="H80">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I80">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="3:41" x14ac:dyDescent="0.15">
@@ -10599,10 +10599,10 @@
         <v>281</v>
       </c>
       <c r="H81">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I81">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J81">
         <v>252</v>
@@ -10718,10 +10718,10 @@
         <v>284</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I82">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J82">
         <v>242</v>
@@ -10837,10 +10837,10 @@
         <v>286</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I83">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J83">
         <v>282</v>
@@ -10956,10 +10956,10 @@
         <v>288</v>
       </c>
       <c r="H84">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I84">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J84">
         <v>222</v>
@@ -11075,10 +11075,10 @@
         <v>290</v>
       </c>
       <c r="H85">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I85">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J85">
         <v>232</v>
@@ -11191,10 +11191,10 @@
         <v>291</v>
       </c>
       <c r="H86">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I86">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="3:41" x14ac:dyDescent="0.15">
@@ -11214,10 +11214,10 @@
         <v>288</v>
       </c>
       <c r="H87">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I87">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J87">
         <v>222</v>
@@ -11333,10 +11333,10 @@
         <v>295</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I88">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J88">
         <v>232</v>
@@ -11452,10 +11452,10 @@
         <v>297</v>
       </c>
       <c r="H89">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I89">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J89">
         <v>242</v>
@@ -11571,10 +11571,10 @@
         <v>299</v>
       </c>
       <c r="H90">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I90">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J90">
         <v>252</v>
@@ -11690,10 +11690,10 @@
         <v>301</v>
       </c>
       <c r="H91">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I91">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J91">
         <v>292</v>
@@ -11809,10 +11809,10 @@
         <v>303</v>
       </c>
       <c r="H92">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I92">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J92">
         <v>332</v>
@@ -11928,10 +11928,10 @@
         <v>303</v>
       </c>
       <c r="H93">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I93">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J93">
         <v>332</v>
@@ -12047,10 +12047,10 @@
         <v>303</v>
       </c>
       <c r="H94">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I94">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J94">
         <v>332</v>
@@ -12163,10 +12163,10 @@
         <v>306</v>
       </c>
       <c r="H95">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I95">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="3:41" x14ac:dyDescent="0.15">
@@ -12186,10 +12186,10 @@
         <v>308</v>
       </c>
       <c r="H96">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I96">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J96">
         <v>212</v>
@@ -12305,10 +12305,10 @@
         <v>311</v>
       </c>
       <c r="H97">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I97">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J97">
         <v>222</v>
@@ -12424,10 +12424,10 @@
         <v>313</v>
       </c>
       <c r="H98">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I98">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J98">
         <v>232</v>
@@ -12543,10 +12543,10 @@
         <v>315</v>
       </c>
       <c r="H99">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J99">
         <v>242</v>
@@ -12662,10 +12662,10 @@
         <v>317</v>
       </c>
       <c r="H100">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I100">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J100">
         <v>252</v>
@@ -12781,10 +12781,10 @@
         <v>319</v>
       </c>
       <c r="H101">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I101">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J101">
         <v>262</v>
@@ -12900,10 +12900,10 @@
         <v>321</v>
       </c>
       <c r="H102">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I102">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J102">
         <v>272</v>
@@ -13019,10 +13019,10 @@
         <v>323</v>
       </c>
       <c r="H103">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I103">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J103">
         <v>282</v>
@@ -13138,10 +13138,10 @@
         <v>325</v>
       </c>
       <c r="H104">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I104">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J104">
         <v>292</v>
@@ -13257,10 +13257,10 @@
         <v>327</v>
       </c>
       <c r="H105">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I105">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J105">
         <v>302</v>
@@ -13376,10 +13376,10 @@
         <v>329</v>
       </c>
       <c r="H106">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I106">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J106">
         <v>310</v>
@@ -13495,10 +13495,10 @@
         <v>331</v>
       </c>
       <c r="H107">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I107">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J107">
         <v>322</v>
@@ -13614,10 +13614,10 @@
         <v>333</v>
       </c>
       <c r="H108">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I108">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J108">
         <v>332</v>
@@ -13733,10 +13733,10 @@
         <v>335</v>
       </c>
       <c r="H109">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I109">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J109">
         <v>342</v>
@@ -13852,10 +13852,10 @@
         <v>337</v>
       </c>
       <c r="H110">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I110">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J110">
         <v>352</v>
@@ -13971,10 +13971,10 @@
         <v>339</v>
       </c>
       <c r="H111">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I111">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J111">
         <v>362</v>
@@ -14087,10 +14087,10 @@
         <v>340</v>
       </c>
       <c r="H112">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I112">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="3:41" x14ac:dyDescent="0.15">
@@ -14110,10 +14110,10 @@
         <v>342</v>
       </c>
       <c r="H113">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I113">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J113">
         <v>261</v>
@@ -14229,10 +14229,10 @@
         <v>345</v>
       </c>
       <c r="H114">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I114">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J114">
         <v>271</v>
@@ -14348,10 +14348,10 @@
         <v>348</v>
       </c>
       <c r="H115">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I115">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J115">
         <v>281</v>
@@ -14467,10 +14467,10 @@
         <v>351</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I116">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J116">
         <v>291</v>
@@ -14586,10 +14586,10 @@
         <v>354</v>
       </c>
       <c r="H117">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I117">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J117">
         <v>301</v>
@@ -14705,10 +14705,10 @@
         <v>356</v>
       </c>
       <c r="H118">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I118">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J118">
         <v>311</v>
@@ -14824,10 +14824,10 @@
         <v>358</v>
       </c>
       <c r="H119">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I119">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J119">
         <v>321</v>
@@ -14943,10 +14943,10 @@
         <v>361</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I120">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J120">
         <v>331</v>
@@ -15062,10 +15062,10 @@
         <v>363</v>
       </c>
       <c r="H121">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I121">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J121">
         <v>340</v>
@@ -15181,10 +15181,10 @@
         <v>365</v>
       </c>
       <c r="H122">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I122">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J122">
         <v>332</v>
@@ -15300,10 +15300,10 @@
         <v>367</v>
       </c>
       <c r="H123">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I123">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J123">
         <v>332</v>
@@ -15416,10 +15416,10 @@
         <v>368</v>
       </c>
       <c r="H124">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I124">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125" spans="3:41" x14ac:dyDescent="0.15">
@@ -15439,10 +15439,10 @@
         <v>370</v>
       </c>
       <c r="H125">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I125">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J125">
         <v>351</v>
@@ -15555,10 +15555,10 @@
         <v>372</v>
       </c>
       <c r="H126">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I126">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J126">
         <v>351</v>
@@ -15671,10 +15671,10 @@
         <v>374</v>
       </c>
       <c r="H127">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I127">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J127">
         <v>351</v>
@@ -15787,10 +15787,10 @@
         <v>376</v>
       </c>
       <c r="H128">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I128">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J128">
         <v>351</v>
@@ -15903,10 +15903,10 @@
         <v>378</v>
       </c>
       <c r="H129">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I129">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J129">
         <v>351</v>
@@ -16016,10 +16016,10 @@
         <v>379</v>
       </c>
       <c r="H130">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I130">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="131" spans="3:41" x14ac:dyDescent="0.15">
@@ -16039,10 +16039,10 @@
         <v>84</v>
       </c>
       <c r="H131">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I131">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J131">
         <v>103</v>
@@ -16158,10 +16158,10 @@
         <v>383</v>
       </c>
       <c r="H132">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I132">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J132">
         <v>406</v>
@@ -16277,10 +16277,10 @@
         <v>387</v>
       </c>
       <c r="H133">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I133">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J133">
         <v>202</v>
@@ -16396,10 +16396,10 @@
         <v>391</v>
       </c>
       <c r="H134">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I134">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J134">
         <v>402</v>
@@ -16515,10 +16515,10 @@
         <v>394</v>
       </c>
       <c r="H135">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I135">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J135">
         <v>402</v>
@@ -16634,10 +16634,10 @@
         <v>396</v>
       </c>
       <c r="H136">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I136">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J136">
         <v>402</v>
@@ -16753,10 +16753,10 @@
         <v>398</v>
       </c>
       <c r="H137">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I137">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J137">
         <v>402</v>
@@ -16872,10 +16872,10 @@
         <v>400</v>
       </c>
       <c r="H138">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I138">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J138">
         <v>402</v>
@@ -16991,10 +16991,10 @@
         <v>402</v>
       </c>
       <c r="H139">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I139">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J139">
         <v>402</v>
@@ -17110,10 +17110,10 @@
         <v>404</v>
       </c>
       <c r="H140">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I140">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J140">
         <v>402</v>
@@ -17229,10 +17229,10 @@
         <v>406</v>
       </c>
       <c r="H141">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I141">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J141">
         <v>402</v>
@@ -17348,10 +17348,10 @@
         <v>408</v>
       </c>
       <c r="H142">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I142">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J142">
         <v>402</v>
@@ -17467,10 +17467,10 @@
         <v>410</v>
       </c>
       <c r="H143">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I143">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J143">
         <v>402</v>
@@ -17586,10 +17586,10 @@
         <v>413</v>
       </c>
       <c r="H144">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I144">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J144">
         <v>405</v>
@@ -17702,10 +17702,10 @@
         <v>415</v>
       </c>
       <c r="H145">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I145">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146" spans="3:41" x14ac:dyDescent="0.15">
@@ -17725,10 +17725,10 @@
         <v>417</v>
       </c>
       <c r="H146">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I146">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J146">
         <v>410</v>
@@ -17841,10 +17841,10 @@
         <v>420</v>
       </c>
       <c r="H147">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I147">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J147">
         <v>411</v>
@@ -17957,10 +17957,10 @@
         <v>422</v>
       </c>
       <c r="H148">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I148">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J148">
         <v>411</v>
@@ -18076,10 +18076,10 @@
         <v>424</v>
       </c>
       <c r="H149">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I149">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J149">
         <v>411</v>
@@ -18195,10 +18195,10 @@
         <v>426</v>
       </c>
       <c r="H150">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I150">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J150">
         <v>261</v>
@@ -18314,10 +18314,10 @@
         <v>428</v>
       </c>
       <c r="H151">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I151">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J151">
         <v>202</v>
@@ -18424,10 +18424,10 @@
         <v>139</v>
       </c>
       <c r="H152">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I152">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="3:41" x14ac:dyDescent="0.15">
@@ -18447,10 +18447,10 @@
         <v>428</v>
       </c>
       <c r="H153">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I153">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J153">
         <v>202</v>
@@ -18557,10 +18557,10 @@
         <v>141</v>
       </c>
       <c r="H154">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I154">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="3:41" x14ac:dyDescent="0.15">
@@ -18580,10 +18580,10 @@
         <v>431</v>
       </c>
       <c r="H155">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I155">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J155">
         <v>282</v>
@@ -18699,10 +18699,10 @@
         <v>433</v>
       </c>
       <c r="H156">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I156">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J156">
         <v>282</v>
@@ -18809,10 +18809,10 @@
         <v>144</v>
       </c>
       <c r="H157">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I157">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="158" spans="3:41" x14ac:dyDescent="0.15">
@@ -18832,10 +18832,10 @@
         <v>435</v>
       </c>
       <c r="H158">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I158">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J158">
         <v>202</v>
@@ -18951,10 +18951,10 @@
         <v>437</v>
       </c>
       <c r="H159">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I159">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J159">
         <v>282</v>
@@ -19061,10 +19061,10 @@
         <v>147</v>
       </c>
       <c r="H160">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I160">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="3:41" x14ac:dyDescent="0.15">
@@ -19084,10 +19084,10 @@
         <v>439</v>
       </c>
       <c r="H161">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I161">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J161">
         <v>405</v>
@@ -19200,10 +19200,10 @@
         <v>441</v>
       </c>
       <c r="H162">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I162">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J162">
         <v>391</v>
@@ -19316,10 +19316,10 @@
         <v>443</v>
       </c>
       <c r="H163">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I163">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J163">
         <v>383</v>
@@ -19432,10 +19432,10 @@
         <v>445</v>
       </c>
       <c r="H164">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I164">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J164">
         <v>332</v>
@@ -19539,10 +19539,10 @@
         <v>152</v>
       </c>
       <c r="H165">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I165">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="166" spans="3:41" x14ac:dyDescent="0.15">
@@ -19562,10 +19562,10 @@
         <v>447</v>
       </c>
       <c r="H166">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I166">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J166">
         <v>419</v>
@@ -19669,10 +19669,10 @@
         <v>154</v>
       </c>
       <c r="H167">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I167">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="3:41" x14ac:dyDescent="0.15">
@@ -19692,10 +19692,10 @@
         <v>449</v>
       </c>
       <c r="H168">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I168">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J168">
         <v>414</v>
@@ -19799,10 +19799,10 @@
         <v>156</v>
       </c>
       <c r="H169">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I169">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" spans="3:41" x14ac:dyDescent="0.15">
@@ -19822,10 +19822,10 @@
         <v>451</v>
       </c>
       <c r="H170">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I170">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J170">
         <v>416</v>
@@ -19929,10 +19929,10 @@
         <v>158</v>
       </c>
       <c r="H171">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I171">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="172" spans="3:41" x14ac:dyDescent="0.15">
@@ -19952,10 +19952,10 @@
         <v>454</v>
       </c>
       <c r="H172">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I172">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J172">
         <v>519</v>
@@ -20059,10 +20059,10 @@
         <v>160</v>
       </c>
       <c r="H173">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I173">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="174" spans="3:41" x14ac:dyDescent="0.15">
@@ -20082,10 +20082,10 @@
         <v>456</v>
       </c>
       <c r="H174">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I174">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J174">
         <v>262</v>
@@ -20201,10 +20201,10 @@
         <v>458</v>
       </c>
       <c r="H175">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I175">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J175">
         <v>262</v>
@@ -20320,10 +20320,10 @@
         <v>460</v>
       </c>
       <c r="H176">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I176">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J176">
         <v>262</v>
@@ -20439,10 +20439,10 @@
         <v>462</v>
       </c>
       <c r="H177">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I177">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J177">
         <v>262</v>
@@ -20558,10 +20558,10 @@
         <v>464</v>
       </c>
       <c r="H178">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I178">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J178">
         <v>262</v>
@@ -20677,10 +20677,10 @@
         <v>466</v>
       </c>
       <c r="H179">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I179">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J179">
         <v>262</v>
@@ -20796,10 +20796,10 @@
         <v>468</v>
       </c>
       <c r="H180">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I180">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J180">
         <v>262</v>
@@ -20906,10 +20906,10 @@
         <v>168</v>
       </c>
       <c r="H181">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I181">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="182" spans="3:41" x14ac:dyDescent="0.15">
@@ -20929,10 +20929,10 @@
         <v>470</v>
       </c>
       <c r="H182">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I182">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J182">
         <v>292</v>
@@ -21048,10 +21048,10 @@
         <v>472</v>
       </c>
       <c r="H183">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I183">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J183">
         <v>292</v>
@@ -21167,10 +21167,10 @@
         <v>474</v>
       </c>
       <c r="H184">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I184">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J184">
         <v>292</v>
@@ -21286,10 +21286,10 @@
         <v>476</v>
       </c>
       <c r="H185">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I185">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J185">
         <v>292</v>
@@ -21405,10 +21405,10 @@
         <v>478</v>
       </c>
       <c r="H186">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I186">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J186">
         <v>292</v>
@@ -21524,10 +21524,10 @@
         <v>480</v>
       </c>
       <c r="H187">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I187">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J187">
         <v>292</v>
@@ -21643,10 +21643,10 @@
         <v>482</v>
       </c>
       <c r="H188">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I188">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J188">
         <v>292</v>
@@ -21753,10 +21753,10 @@
         <v>176</v>
       </c>
       <c r="H189">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I189">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="190" spans="3:41" x14ac:dyDescent="0.15">
@@ -21776,10 +21776,10 @@
         <v>484</v>
       </c>
       <c r="H190">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I190">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J190">
         <v>242</v>
@@ -21895,10 +21895,10 @@
         <v>486</v>
       </c>
       <c r="H191">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I191">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J191">
         <v>242</v>
@@ -22005,10 +22005,10 @@
         <v>179</v>
       </c>
       <c r="H192">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I192">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="193" spans="3:41" x14ac:dyDescent="0.15">
@@ -22028,10 +22028,10 @@
         <v>488</v>
       </c>
       <c r="H193">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I193">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J193">
         <v>417</v>
@@ -22147,10 +22147,10 @@
         <v>490</v>
       </c>
       <c r="H194">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I194">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J194">
         <v>415</v>
@@ -22266,10 +22266,10 @@
         <v>492</v>
       </c>
       <c r="H195">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I195">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J195">
         <v>417</v>
@@ -22385,10 +22385,10 @@
         <v>494</v>
       </c>
       <c r="H196">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I196">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J196">
         <v>415</v>
@@ -22504,10 +22504,10 @@
         <v>496</v>
       </c>
       <c r="H197">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I197">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J197">
         <v>417</v>
@@ -22623,10 +22623,10 @@
         <v>498</v>
       </c>
       <c r="H198">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I198">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J198">
         <v>415</v>
@@ -22733,10 +22733,10 @@
         <v>186</v>
       </c>
       <c r="H199">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I199">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="200" spans="3:41" x14ac:dyDescent="0.15">
@@ -22756,10 +22756,10 @@
         <v>501</v>
       </c>
       <c r="H200">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I200">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J200">
         <v>215</v>
@@ -22872,10 +22872,10 @@
         <v>504</v>
       </c>
       <c r="H201">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I201">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J201">
         <v>218</v>
@@ -22988,10 +22988,10 @@
         <v>507</v>
       </c>
       <c r="H202">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I202">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J202">
         <v>216</v>
@@ -23104,10 +23104,10 @@
         <v>510</v>
       </c>
       <c r="H203">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I203">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J203">
         <v>108</v>
@@ -23206,6 +23206,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>